--- a/partnerDistrict.xlsx
+++ b/partnerDistrict.xlsx
@@ -74,7 +74,7 @@
     <t>CHITUNGWIZA</t>
   </si>
   <si>
-    <t>MHONDORO</t>
+    <t>MHONDORO-NGEZI</t>
   </si>
   <si>
     <t>CHEGUTU</t>
@@ -88,10 +88,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -562,16 +562,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1247,7 +1247,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
